--- a/data/trans_orig/SENTADO_TIEMPO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SENTADO_TIEMPO-Estudios-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nº medio de minutos/día en los que se está sentado</t>
+          <t>Nº medio de minutos/día en los que se está sentado (tasa de respuesta: 99,99%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -686,7 +686,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>312,22</t>
+          <t>310,35</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>313,8</t>
+          <t>312,75</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>295,58; 329,08</t>
+          <t>294,12; 327,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>299,66; 325,81</t>
+          <t>299,3; 324,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>337,66</t>
+          <t>336,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>333,02</t>
+          <t>332,6</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>323,48; 353,57</t>
+          <t>321,58; 350,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>323,06; 343,98</t>
+          <t>322,42; 344,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>303,85</t>
+          <t>303,6</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>300,41</t>
+          <t>300,08</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>302,07</t>
+          <t>301,78</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>296,33; 311,03</t>
+          <t>296,62; 311,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>293,52; 307,8</t>
+          <t>293,09; 307,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>297,33; 307,4</t>
+          <t>296,85; 307,41</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_orig/SENTADO_TIEMPO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SENTADO_TIEMPO-Estudios-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>321,25</t>
+          <t>313,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>337,19</t>
+          <t>335,39</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>331,19</t>
+          <t>326,88</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>294,39; 358,07</t>
+          <t>283,86; 343,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>365,38; 423,71</t>
+          <t>365,09; 422,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>221,42; 304,13</t>
+          <t>222,45; 310,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>316,97; 359,45</t>
+          <t>311,26; 363,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>381,72; 420,94</t>
+          <t>384,62; 420,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>248,81; 317,92</t>
+          <t>248,12; 315,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>312,15; 348,72</t>
+          <t>309,43; 349,88</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>385,37; 413,99</t>
+          <t>383,6; 414,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>246,95; 300,53</t>
+          <t>246,15; 298,01</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>338,68</t>
+          <t>323,56</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>337,26</t>
+          <t>328,76</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>337,96</t>
+          <t>326,11</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>326,59; 350,55</t>
+          <t>310,93; 335,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>331,86; 356,07</t>
+          <t>330,74; 355,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>308,09; 336,38</t>
+          <t>308,65; 335,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>324,65; 348,94</t>
+          <t>316,18; 342,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>203,85; 312,74</t>
+          <t>204,65; 310,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>293,38; 327,0</t>
+          <t>295,0; 325,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>329,88; 348,02</t>
+          <t>317,48; 334,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>256,22; 330,43</t>
+          <t>257,46; 330,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>304,55; 326,3</t>
+          <t>306,36; 326,47</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>375,43</t>
+          <t>363,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>361,39</t>
+          <t>348,39</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>367,44</t>
+          <t>355,28</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>358,15; 392,22</t>
+          <t>345,37; 383,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>353,95; 387,6</t>
+          <t>353,3; 388,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>381,6; 414,09</t>
+          <t>382,85; 414,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>346,65; 377,97</t>
+          <t>333,78; 365,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>332,49; 363,89</t>
+          <t>332,47; 363,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>349,26; 381,85</t>
+          <t>349,24; 382,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>355,21; 379,63</t>
+          <t>344,22; 368,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>347,4; 370,68</t>
+          <t>347,25; 371,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>368,24; 390,48</t>
+          <t>369,41; 391,56</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>345,12</t>
+          <t>333,64</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>343,59</t>
+          <t>335,75</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>344,29</t>
+          <t>334,74</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>335,43; 354,56</t>
+          <t>323,39; 343,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>345,66; 363,1</t>
+          <t>345,89; 363,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>329,81; 352,14</t>
+          <t>330,62; 351,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>334,22; 352,59</t>
+          <t>326,88; 345,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>247,51; 337,52</t>
+          <t>253,63; 340,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>317,93; 339,86</t>
+          <t>318,19; 340,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>338,08; 350,28</t>
+          <t>327,97; 341,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>295,21; 347,21</t>
+          <t>290,26; 346,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>326,33; 341,95</t>
+          <t>327,53; 341,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/SENTADO_TIEMPO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/SENTADO_TIEMPO-Estudios-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>381,24</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>262,2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>315,83</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>313,31</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>390,83</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>315,83</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>262,2</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>407,08</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>283,2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>310,35</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>335,39</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>404,03</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>310,35</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>283,2</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>397,44</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>273,0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>312,75</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>326,88</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>399,18</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>312,75</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>273,0</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>357,24; 407,59</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>222,45; 310,08</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>297,04; 337,07</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>283,86; 343,2</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>365,09; 422,32</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>297,04; 337,07</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>222,45; 310,08</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>390,02; 424,76</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>248,12; 315,25</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>294,12; 327,38</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>311,26; 363,67</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>384,62; 420,67</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>294,12; 327,38</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>248,12; 315,25</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>383,96; 411,0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>246,15; 298,01</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>299,3; 324,34</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>309,43; 349,88</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>383,6; 414,47</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>299,3; 324,34</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>246,15; 298,01</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>333,68</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>321,51</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>285,74</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>323,56</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>343,02</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>285,74</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>321,51</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>309,57</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>308,93</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>282,86</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>328,76</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>268,25</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>282,86</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>308,93</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>321,62</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>315,31</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>284,29</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>326,11</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>305,53</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>284,29</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>315,31</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>321,48; 344,93</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>308,65; 335,81</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>277,27; 294,08</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>310,93; 335,28</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>330,74; 355,22</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>277,27; 294,08</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>308,65; 335,81</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>299,15; 319,4</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>295,0; 325,95</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>273,84; 292,98</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>316,18; 342,04</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>204,65; 310,61</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>273,84; 292,98</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>295,0; 325,95</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>314,0; 328,9</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>306,36; 326,47</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>277,71; 290,74</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>317,48; 334,93</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>257,46; 330,83</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>277,71; 290,74</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>306,36; 326,47</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>364,59</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>398,12</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>336,77</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>363,71</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>370,92</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>336,77</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>398,12</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>341,56</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>365,31</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>328,79</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>348,39</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>346,82</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>328,79</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>365,31</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>353,07</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>379,95</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>332,6</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>355,28</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>358,96</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>332,6</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>379,95</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>347,53; 381,36</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>382,85; 414,2</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>321,58; 350,53</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>345,37; 383,78</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>353,3; 388,23</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>321,58; 350,53</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>382,85; 414,2</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>327,91; 359,19</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>349,24; 382,46</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>315,25; 345,15</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>333,78; 365,19</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>332,47; 363,45</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>315,25; 345,15</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>349,24; 382,46</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>341,97; 365,56</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>369,41; 391,56</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>322,42; 344,56</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>344,22; 368,19</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>347,25; 371,29</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>322,42; 344,56</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>369,41; 391,56</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>347,73</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>341,13</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>303,6</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>333,64</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>354,61</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>303,6</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>341,13</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>336,58</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>328,51</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>300,08</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>335,75</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>308,48</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>300,08</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>328,51</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>341,92</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>334,59</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>301,78</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>334,74</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>330,64</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>301,78</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>334,59</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>338,66; 356,27</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>330,62; 351,92</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>296,62; 311,11</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>323,39; 343,04</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>345,89; 363,39</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>296,62; 311,11</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>330,62; 351,92</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>329,74; 343,84</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>318,19; 340,86</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>293,09; 307,3</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>326,88; 345,13</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>253,63; 340,01</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>293,09; 307,3</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>318,19; 340,86</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>336,38; 347,62</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>327,53; 341,91</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>296,85; 307,41</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>327,97; 341,48</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>290,26; 346,46</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>296,85; 307,41</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>327,53; 341,91</t>
         </is>
       </c>
     </row>
